--- a/data/evaluation/evaluation_North_Spring_Peppers.xlsx
+++ b/data/evaluation/evaluation_North_Spring_Peppers.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1476.56314699793</v>
+        <v>1620.747929606625</v>
       </c>
       <c r="C3" t="n">
-        <v>7167097.11578182</v>
+        <v>7709143.243499212</v>
       </c>
       <c r="D3" t="n">
-        <v>2677.143461935094</v>
+        <v>2776.534394438364</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01582150495113321</v>
+        <v>-0.05861171865473591</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1683.215203358733</v>
+        <v>1727.673431456225</v>
       </c>
       <c r="C4" t="n">
-        <v>7290891.959096433</v>
+        <v>7484811.651427911</v>
       </c>
       <c r="D4" t="n">
-        <v>2700.165172558233</v>
+        <v>2735.838381817886</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.001177877172475084</v>
+        <v>-0.02780673232484654</v>
       </c>
     </row>
     <row r="5">
